--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yahya\IdeaProjects\SeleniumBootcamp\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06998A4E-5916-488C-A65B-7F0AF531B2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50638690-420B-4F30-A640-BCCB4FBE0255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{5DC96F64-0600-4540-8EF4-E6AE23C27A48}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{5DC96F64-0600-4540-8EF4-E6AE23C27A48}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsroomPage" sheetId="1" r:id="rId1"/>
+    <sheet name="Flights" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Assertions</t>
   </si>
@@ -50,16 +51,41 @@
   </si>
   <si>
     <t>Welcome to Out Travel the System</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Rome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C7C825-8D82-4132-9F2A-6781F4BC04E3}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +467,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD6B53B-F225-4991-8640-96EC6D2E7BA0}">
+  <dimension ref="A1:A16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yahya\IdeaProjects\SeleniumBootcamp\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50638690-420B-4F30-A640-BCCB4FBE0255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69B7D1F-18F2-45E6-BF31-FF0DA8330307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{5DC96F64-0600-4540-8EF4-E6AE23C27A48}"/>
+    <workbookView xWindow="4240" yWindow="0" windowWidth="17140" windowHeight="14320" activeTab="1" xr2:uid="{5DC96F64-0600-4540-8EF4-E6AE23C27A48}"/>
   </bookViews>
   <sheets>
     <sheet name="NewsroomPage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Assertions</t>
   </si>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>Rome</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
   </si>
 </sst>
 </file>
@@ -474,7 +489,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,19 +533,29 @@
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
